--- a/output/carin-bb-Coverage.xlsx
+++ b/output/carin-bb-Coverage.xlsx
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>Coverage.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>Coverage.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -231,7 +231,7 @@
     <t>Coverage.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -263,7 +263,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -289,7 +289,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
     <t>Coverage.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t>Coverage.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -420,7 +420,7 @@
     <t>Coverage.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -578,7 +578,7 @@
     <t>Coverage.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>Coverage.class</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -759,7 +759,7 @@
     <t>Coverage.order</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -842,8 +842,8 @@
     <t>Coverage.costToBeneficiary.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
-Money {[]} {[]}</t>
+    <t>Quantity {SimpleQuantity}
+Money</t>
   </si>
   <si>
     <t>The amount or percentage due from the beneficiary</t>
@@ -912,7 +912,7 @@
     <t>Coverage.subrogation</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -931,7 +931,7 @@
     <t>Coverage.contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Contract]]}
+    <t xml:space="preserve">Reference(Contract)
 </t>
   </si>
   <si>
@@ -997,67 +997,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1093,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP44"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/carin-bb-Coverage.xlsx
+++ b/output/carin-bb-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="305">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -209,6 +209,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Coverage.implicitRules</t>
   </si>
   <si>
@@ -311,24 +315,31 @@
     <t>Coverage.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -338,9 +349,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -405,7 +413,7 @@
     <t>A code specifying the state of the resource instance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -433,7 +441,7 @@
     <t>The order of application of coverages is dependent on the types of coverage.</t>
   </si>
   <si>
-    <t>Coverage Type</t>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
@@ -479,7 +487,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-patient|http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-relatedperson)
 </t>
   </si>
   <si>
@@ -498,26 +506,22 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t>ID assigned to the subscriber</t>
+  </si>
+  <si>
+    <t>The insurer assigned ID for the Subscriber.</t>
+  </si>
+  <si>
+    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
+  </si>
+  <si>
+    <t>Coverage.beneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-patient)
 </t>
   </si>
   <si>
-    <t>ID assigned to the subscriber</t>
-  </si>
-  <si>
-    <t>The insurer assigned ID for the Subscriber.</t>
-  </si>
-  <si>
-    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
-  </si>
-  <si>
-    <t>Coverage.beneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
     <t>Plan beneficiary</t>
   </si>
   <si>
@@ -566,7 +570,10 @@
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
   </si>
   <si>
-    <t>Subscriber Relationship</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
@@ -606,7 +613,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-organization)
 </t>
   </si>
   <si>
@@ -642,7 +649,7 @@
 </t>
   </si>
   <si>
-    <t>Group,Plan,class ..etc will be mapped to class</t>
+    <t>Additional coverage classifications</t>
   </si>
   <si>
     <t>A suite of underwriter specific classifiers.</t>
@@ -654,10 +661,13 @@
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Coverage.class.id</t>
   </si>
   <si>
@@ -674,9 +684,6 @@
   </si>
   <si>
     <t>Coverage.class.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -714,7 +721,7 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
-    <t>Coverage Class</t>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
@@ -754,6 +761,26 @@
   </si>
   <si>
     <t>Used to provide a meaningful description in correspondence to the patient.</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+  &lt;code value="group"/&gt;
+  &lt;display value="Group"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+  &lt;code value="plan"/&gt;
+  &lt;display value="Plan"/&gt;
+&lt;/valueCoding&gt;</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -828,9 +855,6 @@
   </si>
   <si>
     <t>Needed to identify the category associated with the amount for the patient.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The types of services to which patient copayments are specified.</t>
@@ -1093,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1125,7 +1149,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="80.69140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="140.14453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1598,7 +1622,7 @@
         <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>42</v>
@@ -1621,7 +1645,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1644,16 +1668,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1703,7 +1727,7 @@
         <v>42</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -1715,7 +1739,7 @@
         <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>42</v>
@@ -1738,7 +1762,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1761,16 +1785,16 @@
         <v>42</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1796,13 +1820,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -1820,7 +1844,7 @@
         <v>42</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -1832,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>42</v>
@@ -1855,11 +1879,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1878,16 +1902,16 @@
         <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1937,7 +1961,7 @@
         <v>42</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
@@ -1949,13 +1973,13 @@
         <v>42</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -1972,18 +1996,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -1995,16 +2019,16 @@
         <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2054,7 +2078,7 @@
         <v>42</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2072,7 +2096,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2089,18 +2113,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>42</v>
@@ -2112,15 +2136,17 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>42</v>
@@ -2169,7 +2195,7 @@
         <v>42</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2181,13 +2207,13 @@
         <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2204,11 +2230,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2227,19 +2253,19 @@
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2288,7 +2314,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2300,13 +2326,13 @@
         <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2323,7 +2349,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2346,19 +2372,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2407,7 +2433,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2419,30 +2445,30 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2465,19 +2491,19 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2502,13 +2528,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2526,7 +2552,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>51</v>
@@ -2538,16 +2564,16 @@
         <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2561,7 +2587,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2569,7 +2595,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -2584,17 +2610,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2619,13 +2645,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2643,7 +2669,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2655,7 +2681,7 @@
         <v>42</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>42</v>
@@ -2664,13 +2690,13 @@
         <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
@@ -2678,7 +2704,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2701,19 +2727,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2762,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -2774,7 +2800,7 @@
         <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>42</v>
@@ -2783,21 +2809,21 @@
         <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2820,19 +2846,19 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -2881,42 +2907,42 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2939,17 +2965,17 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -2998,7 +3024,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3010,7 +3036,7 @@
         <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>42</v>
@@ -3019,21 +3045,21 @@
         <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3056,17 +3082,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3115,7 +3141,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>51</v>
@@ -3127,30 +3153,30 @@
         <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3173,19 +3199,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3234,7 +3260,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3246,7 +3272,7 @@
         <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
@@ -3258,10 +3284,10 @@
         <v>42</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>42</v>
@@ -3269,7 +3295,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3292,19 +3318,19 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3329,13 +3355,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3353,7 +3379,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3365,7 +3391,7 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>42</v>
@@ -3377,7 +3403,7 @@
         <v>42</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>42</v>
@@ -3388,7 +3414,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3396,7 +3422,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
@@ -3411,17 +3437,17 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3470,7 +3496,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3482,22 +3508,22 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>42</v>
@@ -3505,7 +3531,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3528,19 +3554,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3589,7 +3615,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3601,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>42</v>
@@ -3610,21 +3636,21 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3647,19 +3673,19 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3696,19 +3722,17 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3720,7 +3744,7 @@
         <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>42</v>
@@ -3743,7 +3767,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3766,13 +3790,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3823,7 +3847,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -3841,7 +3865,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3858,11 +3882,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3881,16 +3905,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3940,7 +3964,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -3952,13 +3976,13 @@
         <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3975,11 +3999,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3998,19 +4022,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4059,7 +4083,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4071,13 +4095,13 @@
         <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4094,7 +4118,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4117,17 +4141,17 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4152,13 +4176,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4176,7 +4200,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>51</v>
@@ -4188,7 +4212,7 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
@@ -4211,7 +4235,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4234,19 +4258,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4295,7 +4319,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>51</v>
@@ -4307,7 +4331,7 @@
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>42</v>
@@ -4319,18 +4343,18 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4353,17 +4377,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4412,44 +4436,46 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AO28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4467,20 +4493,22 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4529,19 +4557,19 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>42</v>
@@ -4556,7 +4584,7 @@
         <v>42</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4564,7 +4592,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4584,21 +4612,19 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4646,7 +4672,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4664,13 +4690,13 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>42</v>
@@ -4681,11 +4707,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4704,20 +4730,18 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4765,7 +4789,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -4777,13 +4801,13 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4800,39 +4824,43 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4880,25 +4908,25 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4915,18 +4943,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4935,21 +4963,21 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4958,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>42</v>
@@ -4973,13 +5001,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4997,25 +5025,25 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5032,42 +5060,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5116,42 +5144,42 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5174,19 +5202,17 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5211,13 +5237,13 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5235,7 +5261,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5247,7 +5273,7 @@
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
@@ -5259,26 +5285,28 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5290,22 +5318,22 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5354,19 +5382,19 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -5378,18 +5406,18 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5400,7 +5428,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5412,18 +5440,16 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5471,25 +5497,25 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5506,18 +5532,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5529,15 +5555,17 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5586,25 +5614,25 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5621,11 +5649,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5638,24 +5666,26 @@
         <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5703,7 +5733,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5715,13 +5745,13 @@
         <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5738,42 +5768,40 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5783,7 +5811,7 @@
         <v>42</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>42</v>
@@ -5798,13 +5826,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5822,25 +5850,25 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5857,7 +5885,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5880,17 +5908,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5915,13 +5945,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5939,7 +5969,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -5951,7 +5981,7 @@
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
@@ -5963,18 +5993,18 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5997,17 +6027,17 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6056,7 +6086,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6068,7 +6098,7 @@
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
@@ -6080,18 +6110,18 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6111,22 +6141,20 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6175,7 +6203,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6187,7 +6215,7 @@
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
@@ -6202,7 +6230,7 @@
         <v>42</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>42</v>
@@ -6210,7 +6238,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6221,7 +6249,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6230,20 +6258,20 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6292,41 +6320,1687 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
+      <c r="K57" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="G58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>147</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO44">
+  <autoFilter ref="A1:AO58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6336,7 +8010,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
